--- a/03. Planilhas/Cronograma do projeto.xlsx
+++ b/03. Planilhas/Cronograma do projeto.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B81B24-88D5-4DB1-9954-D8266EEB400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning stage" sheetId="1" r:id="rId1"/>
@@ -24,16 +25,6 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,9 +44,6 @@
     <t>Filipe PENNA CERAVOLO SOARES</t>
   </si>
   <si>
-    <t>ATIVIDADE</t>
-  </si>
-  <si>
     <t xml:space="preserve">INÍCIO </t>
   </si>
   <si>
@@ -63,9 +51,6 @@
   </si>
   <si>
     <t>Identificação das fontes de dados disponíveis</t>
-  </si>
-  <si>
-    <t>Análise exploratória dos dados</t>
   </si>
   <si>
     <t>DURAÇÃO</t>
@@ -77,16 +62,22 @@
     <t>Estudo e revisão de métodos de estado da arte de clusterização</t>
   </si>
   <si>
-    <t>Aferição de resultados</t>
+    <t>Tratamento dos dados disponíveis</t>
   </si>
   <si>
-    <t>Aplicação de métodos</t>
+    <t>Aferição e discussão de resultados</t>
+  </si>
+  <si>
+    <t>FASE</t>
+  </si>
+  <si>
+    <t>Utilização de modelos supervisionados de previsão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
@@ -402,7 +393,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,7 +418,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="1" xfId="13" applyFont="1">
@@ -436,17 +427,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1">
@@ -461,7 +452,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,19 +473,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
@@ -511,28 +499,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="% achevé" xfId="16"/>
+    <cellStyle name="% achevé" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="60% - Ênfase1" xfId="19" builtinId="32"/>
-    <cellStyle name="Activité" xfId="2"/>
-    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7"/>
-    <cellStyle name="En-têtes de période" xfId="3"/>
-    <cellStyle name="En-têtes de projet" xfId="4"/>
-    <cellStyle name="Étiquette" xfId="5"/>
-    <cellStyle name="Légende de ce qui a été accompli" xfId="15"/>
-    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17"/>
-    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18"/>
-    <cellStyle name="Légende du plan" xfId="14"/>
+    <cellStyle name="Activité" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Pourcentage accompli" xfId="6"/>
+    <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Valeur de la période" xfId="13"/>
+    <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -671,507 +659,6 @@
         <top style="thin">
           <color theme="7"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1415,14 +902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AB12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1465,7 +952,7 @@
       <c r="Y1"/>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
@@ -1517,23 +1004,23 @@
     </row>
     <row r="4" spans="2:28" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -1658,7 +1145,7 @@
     </row>
     <row r="7" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
@@ -1671,7 +1158,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -1687,13 +1174,13 @@
       <c r="W7" s="29"/>
       <c r="X7" s="29"/>
       <c r="Y7" s="29"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
     </row>
     <row r="8" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="27">
         <v>3</v>
@@ -1706,7 +1193,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
@@ -1722,26 +1209,26 @@
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="29"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
     </row>
     <row r="9" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="30">
+        <v>5</v>
+      </c>
+      <c r="D9" s="27">
         <v>7</v>
-      </c>
-      <c r="C9" s="31">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27">
-        <v>4</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -1757,26 +1244,26 @@
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
       <c r="Y9" s="29"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
     </row>
     <row r="10" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="30">
         <v>10</v>
       </c>
-      <c r="C10" s="31">
-        <v>6</v>
-      </c>
       <c r="D10" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -1792,26 +1279,26 @@
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
     </row>
     <row r="11" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="27">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="30">
+        <v>11</v>
       </c>
       <c r="D11" s="27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -1827,26 +1314,26 @@
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
       <c r="Y11" s="29"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -1862,40 +1349,28 @@
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:AB12">
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>PourcentageAccompli</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>PourcentageAccompliAuDelà</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="33">
-      <formula>Réel</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="34">
-      <formula>RéelAuDelà</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="35">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="36">
-      <formula>F$5=période_sélectionnée</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="40">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="41">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B13:AB13">
     <cfRule type="expression" dxfId="9" priority="31">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24C1F9FF-46A6-4648-B69A-865B3465F3C2}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:AB5">
@@ -1903,7 +1378,7 @@
       <formula>F$5=période_sélectionnée</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AB7">
+  <conditionalFormatting sqref="F7:AB12">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PourcentageAccompli</formula>
     </cfRule>
@@ -1929,29 +1404,15 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E12">
-    <cfRule type="dataBar" priority="80">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24C1F9FF-46A6-4648-B69A-865B3465F3C2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes pour les intervalles. Début=1 est la période 1 et durée=5 indique que le projet dure 5 périodes à partir de la période de début. Entrez les données à partir de B5 pour mettre à jour le graphique" sqref="A1:A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B4:B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C4:C6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D4:D6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en surbrillance une période dans H2. La légende du graphique se trouve dans les cellules J2 à AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez la période à mettre en surbrillance dans H2. Une légende de graphique se trouve dans les cellules J2 à AI2" sqref="B2 C3:E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="E4:E6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes pour les intervalles. Début=1 est la période 1 et durée=5 indique que le projet dure 5 périodes à partir de la période de début. Entrez les données à partir de B5 pour mettre à jour le graphique" sqref="A1:A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B4:B5" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C4:C6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D4:D6" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en surbrillance une période dans H2. La légende du graphique se trouve dans les cellules J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez la période à mettre en surbrillance dans H2. Une légende de graphique se trouve dans les cellules J2 à AI2" sqref="B2 C3:E3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="E4:E6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1973,7 +1434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E10:E12</xm:sqref>
+          <xm:sqref>E11:E12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1985,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2003,12 +1464,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrez une valeur entre 1 et 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="C2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrez une valeur entre 1 et 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
   </dataValidations>
